--- a/QA Process Documentation/TestCases/Test Cases.xlsx
+++ b/QA Process Documentation/TestCases/Test Cases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ahsan\Office Work\Previous Releases\Release 24.08\AS-12080\Test Cases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AltuMedGitHub\Portfolio-and-Previous-Work\QA Process Documentation\TestCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEAA47C8-FBB4-4BFB-83CF-93DC2A068D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAFB04B8-1FA1-4DFF-AF87-EE36621B2138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -114,11 +114,6 @@
     <t>Verify that the new statement template labeled "Without Credit Card" is added to the statement setup</t>
   </si>
   <si>
-    <t>1. Browser should be launched
-2. PracticeFit should be logged In
-3. Statement Setup should be open</t>
-  </si>
-  <si>
     <t>1. "Without Credit Card" statement template
 2. Save button</t>
   </si>
@@ -155,36 +150,6 @@
   </si>
   <si>
     <t>Statement_Enhancements_06</t>
-  </si>
-  <si>
-    <t>1. Browser should be launched
-2. PracticeFit should be logged In
-3. Statement module should be open
-4. Pending Statements should be selected</t>
-  </si>
-  <si>
-    <t>1. Browser should be launched
-2. PracticeFit should be logged In
-3. Statement module should be open
-4. Sent Statements should be selected</t>
-  </si>
-  <si>
-    <t>1. Browser should be launched
-2. PracticeFit should be logged In
-3. Statement module should be open
-4. Paid Statements should be selected</t>
-  </si>
-  <si>
-    <t>1. Browser should be launched
-2. PracticeFit should be logged In
-3. Statement module should be open
-4. Unpaid Statements should be selected</t>
-  </si>
-  <si>
-    <t>1. Browser should be launched
-2. PracticeFit should be logged In
-3. Statement module should be open
-4. Partially Paid Statements should be selected</t>
   </si>
   <si>
     <t>1. Preview Statement
@@ -363,7 +328,42 @@
     <t>00/00/0000</t>
   </si>
   <si>
-    <t>Title</t>
+    <t>1. Browser should be launched
+2. EPM should be logged In
+3. Statement Setup should be open</t>
+  </si>
+  <si>
+    <t>1. Browser should be launched
+2. EPM should be logged In
+3. Statement module should be open
+4. Pending Statements should be selected</t>
+  </si>
+  <si>
+    <t>1. Browser should be launched
+2. EPM should be logged In
+3. Statement module should be open
+4. Sent Statements should be selected</t>
+  </si>
+  <si>
+    <t>1. Browser should be launched
+2. EPM should be logged In
+3. Statement module should be open
+4. Partially Paid Statements should be selected</t>
+  </si>
+  <si>
+    <t>1. Browser should be launched
+2. EPM should be logged In
+3. Statement module should be open
+4. Paid Statements should be selected</t>
+  </si>
+  <si>
+    <t>1. Browser should be launched
+2. EPM should be logged In
+3. Statement module should be open
+4. Unpaid Statements should be selected</t>
+  </si>
+  <si>
+    <t>Statements Enhancements</t>
   </si>
 </sst>
 </file>
@@ -587,6 +587,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -611,25 +623,13 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -942,75 +942,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="18" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="19" t="s">
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="22" t="s">
         <v>22</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="18" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="I3" s="21"/>
-      <c r="J3" s="19"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="I3" s="11"/>
+      <c r="J3" s="22"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -1030,55 +1030,55 @@
       <c r="O4" s="7"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
       <c r="L5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="24" t="s">
+      <c r="M5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24" t="s">
+      <c r="N5" s="13"/>
+      <c r="O5" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
       <c r="I6" s="8" t="s">
         <v>9</v>
       </c>
@@ -1097,7 +1097,7 @@
       <c r="N6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="O6" s="24"/>
+      <c r="O6" s="13"/>
     </row>
     <row r="7" spans="1:15" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
@@ -1113,29 +1113,29 @@
         <v>27</v>
       </c>
       <c r="E7" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="G7" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="9" t="s">
-        <v>30</v>
-      </c>
       <c r="H7" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
       <c r="O7" s="9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="156.75" x14ac:dyDescent="0.25">
@@ -1143,33 +1143,33 @@
         <v>2</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E8" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>47</v>
-      </c>
       <c r="H8" s="9" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c r="L8" s="9" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
@@ -1180,38 +1180,38 @@
         <v>3</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E9" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>48</v>
-      </c>
       <c r="G9" s="9" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c r="L9" s="9" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
-      <c r="O9" s="10" t="s">
-        <v>86</v>
+      <c r="O9" s="14" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="99.75" x14ac:dyDescent="0.25">
@@ -1219,144 +1219,144 @@
         <v>4</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E10" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>51</v>
-      </c>
       <c r="H10" s="9" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c r="L10" s="9" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
-      <c r="O10" s="11"/>
+      <c r="O10" s="15"/>
     </row>
     <row r="11" spans="1:15" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>5</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c r="L11" s="9" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
-      <c r="O11" s="11"/>
+      <c r="O11" s="15"/>
     </row>
     <row r="12" spans="1:15" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>6</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c r="L12" s="9" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
-      <c r="O12" s="12"/>
+      <c r="O12" s="16"/>
     </row>
     <row r="13" spans="1:15" ht="213.75" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>7</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>26</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c r="L13" s="9" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
@@ -1367,33 +1367,33 @@
         <v>8</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E14" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>47</v>
-      </c>
       <c r="H14" s="9" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c r="L14" s="9" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
@@ -1404,38 +1404,38 @@
         <v>9</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E15" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="9" t="s">
-        <v>48</v>
-      </c>
       <c r="G15" s="9" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c r="L15" s="9" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
-      <c r="O15" s="10" t="s">
-        <v>87</v>
+      <c r="O15" s="14" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="114" x14ac:dyDescent="0.25">
@@ -1443,111 +1443,111 @@
         <v>10</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E16" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F16" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>51</v>
-      </c>
       <c r="H16" s="9" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="9" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
-      <c r="O16" s="11"/>
+      <c r="O16" s="15"/>
     </row>
     <row r="17" spans="1:15" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>11</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c r="L17" s="9" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
-      <c r="O17" s="11"/>
+      <c r="O17" s="15"/>
     </row>
     <row r="18" spans="1:15" ht="185.25" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>12</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c r="L18" s="9" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
-      <c r="O18" s="12"/>
+      <c r="O18" s="16"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
@@ -1874,16 +1874,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:O6"/>
     <mergeCell ref="O9:O12"/>
     <mergeCell ref="O15:O18"/>
     <mergeCell ref="A1:I1"/>
@@ -1900,6 +1890,16 @@
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
